--- a/0_0_Data/3_Naive_Forecaster_Data/0_Combined_YoY_Forecasts/dt_full_yoy_AVERAGE_1_9.xlsx
+++ b/0_0_Data/3_Naive_Forecaster_Data/0_Combined_YoY_Forecasts/dt_full_yoy_AVERAGE_1_9.xlsx
@@ -369,13 +369,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:ES59"/>
+  <dimension ref="A1:ET60"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:149">
+    <row r="1" spans="1:150">
       <c r="B1" s="1">
         <v>32508</v>
       </c>
@@ -820,18 +820,21 @@
       <c r="ES1" s="1">
         <v>45891</v>
       </c>
+      <c r="ET1" s="1">
+        <v>45986</v>
+      </c>
     </row>
-    <row r="2" spans="1:149">
+    <row r="2" spans="1:150">
       <c r="A2" s="1">
         <v>25933</v>
       </c>
     </row>
-    <row r="3" spans="1:149">
+    <row r="3" spans="1:150">
       <c r="A3" s="1">
         <v>26298</v>
       </c>
     </row>
-    <row r="4" spans="1:149">
+    <row r="4" spans="1:150">
       <c r="A4" s="1">
         <v>26664</v>
       </c>
@@ -1279,8 +1282,11 @@
       <c r="ES4">
         <v>4.249909189974566</v>
       </c>
+      <c r="ET4">
+        <v>4.249909189974566</v>
+      </c>
     </row>
-    <row r="5" spans="1:149">
+    <row r="5" spans="1:150">
       <c r="A5" s="1">
         <v>27029</v>
       </c>
@@ -1728,8 +1734,11 @@
       <c r="ES5">
         <v>4.988385598141676</v>
       </c>
+      <c r="ET5">
+        <v>4.988385598141676</v>
+      </c>
     </row>
-    <row r="6" spans="1:149">
+    <row r="6" spans="1:150">
       <c r="A6" s="1">
         <v>27394</v>
       </c>
@@ -2177,8 +2186,11 @@
       <c r="ES6">
         <v>0.9845677305160505</v>
       </c>
+      <c r="ET6">
+        <v>0.9845677305160505</v>
+      </c>
     </row>
-    <row r="7" spans="1:149">
+    <row r="7" spans="1:150">
       <c r="A7" s="1">
         <v>27759</v>
       </c>
@@ -2626,8 +2638,11 @@
       <c r="ES7">
         <v>-0.8708988333242074</v>
       </c>
+      <c r="ET7">
+        <v>-0.8708988333242074</v>
+      </c>
     </row>
-    <row r="8" spans="1:149">
+    <row r="8" spans="1:150">
       <c r="A8" s="1">
         <v>28125</v>
       </c>
@@ -3075,8 +3090,11 @@
       <c r="ES8">
         <v>4.431428887169875</v>
       </c>
+      <c r="ET8">
+        <v>4.431428887169875</v>
+      </c>
     </row>
-    <row r="9" spans="1:149">
+    <row r="9" spans="1:150">
       <c r="A9" s="1">
         <v>28490</v>
       </c>
@@ -3524,8 +3542,11 @@
       <c r="ES9">
         <v>3.518518518518499</v>
       </c>
+      <c r="ET9">
+        <v>3.518518518518499</v>
+      </c>
     </row>
-    <row r="10" spans="1:149">
+    <row r="10" spans="1:150">
       <c r="A10" s="1">
         <v>28855</v>
       </c>
@@ -3973,8 +3994,11 @@
       <c r="ES10">
         <v>3.102478916432405</v>
       </c>
+      <c r="ET10">
+        <v>3.102478916432405</v>
+      </c>
     </row>
-    <row r="11" spans="1:149">
+    <row r="11" spans="1:150">
       <c r="A11" s="1">
         <v>29220</v>
       </c>
@@ -4422,8 +4446,11 @@
       <c r="ES11">
         <v>4.293079516161025</v>
       </c>
+      <c r="ET11">
+        <v>4.293079516161025</v>
+      </c>
     </row>
-    <row r="12" spans="1:149">
+    <row r="12" spans="1:150">
       <c r="A12" s="1">
         <v>29586</v>
       </c>
@@ -4871,8 +4898,11 @@
       <c r="ES12">
         <v>1.283391957410407</v>
       </c>
+      <c r="ET12">
+        <v>1.283391957410407</v>
+      </c>
     </row>
-    <row r="13" spans="1:149">
+    <row r="13" spans="1:150">
       <c r="A13" s="1">
         <v>29951</v>
       </c>
@@ -5320,8 +5350,11 @@
       <c r="ES13">
         <v>0.6476440773418135</v>
       </c>
+      <c r="ET13">
+        <v>0.6476440773418135</v>
+      </c>
     </row>
-    <row r="14" spans="1:149">
+    <row r="14" spans="1:150">
       <c r="A14" s="1">
         <v>30316</v>
       </c>
@@ -5769,8 +5802,11 @@
       <c r="ES14">
         <v>-0.4989275389350234</v>
       </c>
+      <c r="ET14">
+        <v>-0.4989275389350234</v>
+      </c>
     </row>
-    <row r="15" spans="1:149">
+    <row r="15" spans="1:150">
       <c r="A15" s="1">
         <v>30681</v>
       </c>
@@ -6218,8 +6254,11 @@
       <c r="ES15">
         <v>1.466797881812631</v>
       </c>
+      <c r="ET15">
+        <v>1.466797881812631</v>
+      </c>
     </row>
-    <row r="16" spans="1:149">
+    <row r="16" spans="1:150">
       <c r="A16" s="1">
         <v>31047</v>
       </c>
@@ -6667,8 +6706,11 @@
       <c r="ES16">
         <v>2.900424903011278</v>
       </c>
+      <c r="ET16">
+        <v>2.900424903011278</v>
+      </c>
     </row>
-    <row r="17" spans="1:149">
+    <row r="17" spans="1:150">
       <c r="A17" s="1">
         <v>31412</v>
       </c>
@@ -7116,8 +7158,11 @@
       <c r="ES17">
         <v>2.603231597845612</v>
       </c>
+      <c r="ET17">
+        <v>2.603231597845612</v>
+      </c>
     </row>
-    <row r="18" spans="1:149">
+    <row r="18" spans="1:150">
       <c r="A18" s="1">
         <v>31777</v>
       </c>
@@ -7565,8 +7610,11 @@
       <c r="ES18">
         <v>2.279090113735771</v>
       </c>
+      <c r="ET18">
+        <v>2.279090113735771</v>
+      </c>
     </row>
-    <row r="19" spans="1:149">
+    <row r="19" spans="1:150">
       <c r="A19" s="1">
         <v>32142</v>
       </c>
@@ -8014,8 +8062,11 @@
       <c r="ES19">
         <v>1.278816132757377</v>
       </c>
+      <c r="ET19">
+        <v>1.278816132757377</v>
+      </c>
     </row>
-    <row r="20" spans="1:149">
+    <row r="20" spans="1:150">
       <c r="A20" s="1">
         <v>32508</v>
       </c>
@@ -8463,8 +8514,11 @@
       <c r="ES20">
         <v>3.441722972973005</v>
       </c>
+      <c r="ET20">
+        <v>3.441722972973005</v>
+      </c>
     </row>
-    <row r="21" spans="1:149">
+    <row r="21" spans="1:150">
       <c r="A21" s="1">
         <v>32873</v>
       </c>
@@ -8912,8 +8966,11 @@
       <c r="ES21">
         <v>4.033476219636656</v>
       </c>
+      <c r="ET21">
+        <v>4.033476219636656</v>
+      </c>
     </row>
-    <row r="22" spans="1:149">
+    <row r="22" spans="1:150">
       <c r="A22" s="1">
         <v>33238</v>
       </c>
@@ -9361,8 +9418,11 @@
       <c r="ES22">
         <v>5.482086096613403</v>
       </c>
+      <c r="ET22">
+        <v>5.482086096613403</v>
+      </c>
     </row>
-    <row r="23" spans="1:149">
+    <row r="23" spans="1:150">
       <c r="A23" s="1">
         <v>33603</v>
       </c>
@@ -9801,8 +9861,11 @@
       <c r="ES23">
         <v>5.241851727627922</v>
       </c>
+      <c r="ET23">
+        <v>5.241851727627922</v>
+      </c>
     </row>
-    <row r="24" spans="1:149">
+    <row r="24" spans="1:150">
       <c r="A24" s="1">
         <v>33969</v>
       </c>
@@ -10229,8 +10292,11 @@
       <c r="ES24">
         <v>1.590049821561079</v>
       </c>
+      <c r="ET24">
+        <v>1.590049821561079</v>
+      </c>
     </row>
-    <row r="25" spans="1:149">
+    <row r="25" spans="1:150">
       <c r="A25" s="1">
         <v>34334</v>
       </c>
@@ -10645,8 +10711,11 @@
       <c r="ES25">
         <v>-0.9947480087649119</v>
       </c>
+      <c r="ET25">
+        <v>-0.9947480087649119</v>
+      </c>
     </row>
-    <row r="26" spans="1:149">
+    <row r="26" spans="1:150">
       <c r="A26" s="1">
         <v>34699</v>
       </c>
@@ -11049,8 +11118,11 @@
       <c r="ES26">
         <v>2.662919374670669</v>
       </c>
+      <c r="ET26">
+        <v>2.662919374670669</v>
+      </c>
     </row>
-    <row r="27" spans="1:149">
+    <row r="27" spans="1:150">
       <c r="A27" s="1">
         <v>35064</v>
       </c>
@@ -11441,8 +11513,11 @@
       <c r="ES27">
         <v>1.584368476884657</v>
       </c>
+      <c r="ET27">
+        <v>1.584368476884657</v>
+      </c>
     </row>
-    <row r="28" spans="1:149">
+    <row r="28" spans="1:150">
       <c r="A28" s="1">
         <v>35430</v>
       </c>
@@ -11821,8 +11896,11 @@
       <c r="ES28">
         <v>1.064474836623308</v>
       </c>
+      <c r="ET28">
+        <v>1.064474836623308</v>
+      </c>
     </row>
-    <row r="29" spans="1:149">
+    <row r="29" spans="1:150">
       <c r="A29" s="1">
         <v>35795</v>
       </c>
@@ -12189,8 +12267,11 @@
       <c r="ES29">
         <v>1.929871341910538</v>
       </c>
+      <c r="ET29">
+        <v>1.929871341910538</v>
+      </c>
     </row>
-    <row r="30" spans="1:149">
+    <row r="30" spans="1:150">
       <c r="A30" s="1">
         <v>36160</v>
       </c>
@@ -12545,8 +12626,11 @@
       <c r="ES30">
         <v>1.886792452830188</v>
       </c>
+      <c r="ET30">
+        <v>1.886792452830188</v>
+      </c>
     </row>
-    <row r="31" spans="1:149">
+    <row r="31" spans="1:150">
       <c r="A31" s="1">
         <v>36525</v>
       </c>
@@ -12889,8 +12973,11 @@
       <c r="ES31">
         <v>1.983439245137664</v>
       </c>
+      <c r="ET31">
+        <v>1.983439245137664</v>
+      </c>
     </row>
-    <row r="32" spans="1:149">
+    <row r="32" spans="1:150">
       <c r="A32" s="1">
         <v>36891</v>
       </c>
@@ -13221,8 +13308,11 @@
       <c r="ES32">
         <v>3.109264853977822</v>
       </c>
+      <c r="ET32">
+        <v>3.109264853977822</v>
+      </c>
     </row>
-    <row r="33" spans="1:149">
+    <row r="33" spans="1:150">
       <c r="A33" s="1">
         <v>37256</v>
       </c>
@@ -13541,8 +13631,11 @@
       <c r="ES33">
         <v>1.767183494078894</v>
       </c>
+      <c r="ET33">
+        <v>1.767183494078894</v>
+      </c>
     </row>
-    <row r="34" spans="1:149">
+    <row r="34" spans="1:150">
       <c r="A34" s="1">
         <v>37621</v>
       </c>
@@ -13849,8 +13942,11 @@
       <c r="ES34">
         <v>-0.2039408571514301</v>
       </c>
+      <c r="ET34">
+        <v>-0.2039408571514301</v>
+      </c>
     </row>
-    <row r="35" spans="1:149">
+    <row r="35" spans="1:150">
       <c r="A35" s="1">
         <v>37986</v>
       </c>
@@ -14145,8 +14241,11 @@
       <c r="ES35">
         <v>-0.5379413974455294</v>
       </c>
+      <c r="ET35">
+        <v>-0.5379413974455294</v>
+      </c>
     </row>
-    <row r="36" spans="1:149">
+    <row r="36" spans="1:150">
       <c r="A36" s="1">
         <v>38352</v>
       </c>
@@ -14429,8 +14528,11 @@
       <c r="ES36">
         <v>0.6949480299734079</v>
       </c>
+      <c r="ET36">
+        <v>0.6949480299734079</v>
+      </c>
     </row>
-    <row r="37" spans="1:149">
+    <row r="37" spans="1:150">
       <c r="A37" s="1">
         <v>38717</v>
       </c>
@@ -14701,8 +14803,11 @@
       <c r="ES37">
         <v>1.056232371121646</v>
       </c>
+      <c r="ET37">
+        <v>1.056232371121646</v>
+      </c>
     </row>
-    <row r="38" spans="1:149">
+    <row r="38" spans="1:150">
       <c r="A38" s="1">
         <v>39082</v>
       </c>
@@ -14961,8 +15066,11 @@
       <c r="ES38">
         <v>4.038244551339143</v>
       </c>
+      <c r="ET38">
+        <v>4.038244551339143</v>
+      </c>
     </row>
-    <row r="39" spans="1:149">
+    <row r="39" spans="1:150">
       <c r="A39" s="1">
         <v>39447</v>
       </c>
@@ -15209,8 +15317,11 @@
       <c r="ES39">
         <v>2.996746389634097</v>
       </c>
+      <c r="ET39">
+        <v>2.996746389634097</v>
+      </c>
     </row>
-    <row r="40" spans="1:149">
+    <row r="40" spans="1:150">
       <c r="A40" s="1">
         <v>39813</v>
       </c>
@@ -15445,8 +15556,11 @@
       <c r="ES40">
         <v>0.6207049434715506</v>
       </c>
+      <c r="ET40">
+        <v>0.6207049434715506</v>
+      </c>
     </row>
-    <row r="41" spans="1:149">
+    <row r="41" spans="1:150">
       <c r="A41" s="1">
         <v>40178</v>
       </c>
@@ -15669,8 +15783,11 @@
       <c r="ES41">
         <v>-5.499559374311536</v>
       </c>
+      <c r="ET41">
+        <v>-5.499559374311536</v>
+      </c>
     </row>
-    <row r="42" spans="1:149">
+    <row r="42" spans="1:150">
       <c r="A42" s="1">
         <v>40543</v>
       </c>
@@ -15881,8 +15998,11 @@
       <c r="ES42">
         <v>4.006994025936184</v>
       </c>
+      <c r="ET42">
+        <v>4.006994025936184</v>
+      </c>
     </row>
-    <row r="43" spans="1:149">
+    <row r="43" spans="1:150">
       <c r="A43" s="1">
         <v>40908</v>
       </c>
@@ -16081,8 +16201,11 @@
       <c r="ES43">
         <v>3.833006444382181</v>
       </c>
+      <c r="ET43">
+        <v>3.833006444382181</v>
+      </c>
     </row>
-    <row r="44" spans="1:149">
+    <row r="44" spans="1:150">
       <c r="A44" s="1">
         <v>41274</v>
       </c>
@@ -16269,8 +16392,11 @@
       <c r="ES44">
         <v>0.6530303848022223</v>
       </c>
+      <c r="ET44">
+        <v>0.6530303848022223</v>
+      </c>
     </row>
-    <row r="45" spans="1:149">
+    <row r="45" spans="1:150">
       <c r="A45" s="1">
         <v>41639</v>
       </c>
@@ -16445,8 +16571,11 @@
       <c r="ES45">
         <v>0.5093833780160928</v>
       </c>
+      <c r="ET45">
+        <v>0.5093833780160928</v>
+      </c>
     </row>
-    <row r="46" spans="1:149">
+    <row r="46" spans="1:150">
       <c r="A46" s="1">
         <v>42004</v>
       </c>
@@ -16609,8 +16738,11 @@
       <c r="ES46">
         <v>2.173913043478248</v>
       </c>
+      <c r="ET46">
+        <v>2.173913043478248</v>
+      </c>
     </row>
-    <row r="47" spans="1:149">
+    <row r="47" spans="1:150">
       <c r="A47" s="1">
         <v>42369</v>
       </c>
@@ -16761,8 +16893,11 @@
       <c r="ES47">
         <v>1.417569507897132</v>
       </c>
+      <c r="ET47">
+        <v>1.417569507897132</v>
+      </c>
     </row>
-    <row r="48" spans="1:149">
+    <row r="48" spans="1:150">
       <c r="A48" s="1">
         <v>42735</v>
       </c>
@@ -16901,8 +17036,11 @@
       <c r="ES48">
         <v>2.136532125205948</v>
       </c>
+      <c r="ET48">
+        <v>2.136532125205948</v>
+      </c>
     </row>
-    <row r="49" spans="1:149">
+    <row r="49" spans="1:150">
       <c r="A49" s="1">
         <v>43100</v>
       </c>
@@ -17029,8 +17167,11 @@
       <c r="ES49">
         <v>3.094914058168241</v>
       </c>
+      <c r="ET49">
+        <v>3.094914058168241</v>
+      </c>
     </row>
-    <row r="50" spans="1:149">
+    <row r="50" spans="1:150">
       <c r="A50" s="1">
         <v>43465</v>
       </c>
@@ -17145,8 +17286,11 @@
       <c r="ES50">
         <v>1.151420329536013</v>
       </c>
+      <c r="ET50">
+        <v>1.151420329536013</v>
+      </c>
     </row>
-    <row r="51" spans="1:149">
+    <row r="51" spans="1:150">
       <c r="A51" s="1">
         <v>43830</v>
       </c>
@@ -17249,8 +17393,11 @@
       <c r="ES51">
         <v>1.010223070788152</v>
       </c>
+      <c r="ET51">
+        <v>1.010223070788152</v>
+      </c>
     </row>
-    <row r="52" spans="1:149">
+    <row r="52" spans="1:150">
       <c r="A52" s="1">
         <v>44196</v>
       </c>
@@ -17341,8 +17488,11 @@
       <c r="ES52">
         <v>-4.486182557722218</v>
       </c>
+      <c r="ET52">
+        <v>-4.486182557722218</v>
+      </c>
     </row>
-    <row r="53" spans="1:149">
+    <row r="53" spans="1:150">
       <c r="A53" s="1">
         <v>44561</v>
       </c>
@@ -17421,8 +17571,11 @@
       <c r="ES53">
         <v>3.865230460921842</v>
       </c>
+      <c r="ET53">
+        <v>3.865230460921842</v>
+      </c>
     </row>
-    <row r="54" spans="1:149">
+    <row r="54" spans="1:150">
       <c r="A54" s="1">
         <v>44926</v>
       </c>
@@ -17489,8 +17642,11 @@
       <c r="ES54">
         <v>1.886018860188643</v>
       </c>
+      <c r="ET54">
+        <v>1.886018860188643</v>
+      </c>
     </row>
-    <row r="55" spans="1:149">
+    <row r="55" spans="1:150">
       <c r="A55" s="1">
         <v>45291</v>
       </c>
@@ -17545,8 +17701,11 @@
       <c r="ES55">
         <v>-0.6770031956444766</v>
       </c>
+      <c r="ET55">
+        <v>-0.6770031956444766</v>
+      </c>
     </row>
-    <row r="56" spans="1:149">
+    <row r="56" spans="1:150">
       <c r="A56" s="1">
         <v>45657</v>
       </c>
@@ -17589,8 +17748,11 @@
       <c r="ES56">
         <v>-0.4695059462808793</v>
       </c>
+      <c r="ET56">
+        <v>-0.4695059462808793</v>
+      </c>
     </row>
-    <row r="57" spans="1:149">
+    <row r="57" spans="1:150">
       <c r="A57" s="1">
         <v>46022</v>
       </c>
@@ -17621,8 +17783,11 @@
       <c r="ES57">
         <v>-0.02796623791461172</v>
       </c>
+      <c r="ET57">
+        <v>0.2298740481777584</v>
+      </c>
     </row>
-    <row r="58" spans="1:149">
+    <row r="58" spans="1:150">
       <c r="A58" s="1">
         <v>46387</v>
       </c>
@@ -17641,13 +17806,24 @@
       <c r="ES58">
         <v>-1.102179609273968</v>
       </c>
+      <c r="ET58">
+        <v>-0.05255865067609333</v>
+      </c>
     </row>
-    <row r="59" spans="1:149">
+    <row r="59" spans="1:150">
       <c r="A59" s="1">
         <v>46752</v>
       </c>
       <c r="ES59">
         <v>-1.102179609273968</v>
+      </c>
+      <c r="ET59">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="1:150">
+      <c r="A60" s="1">
+        <v>47118</v>
       </c>
     </row>
   </sheetData>
